--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail5 Features.xlsx
@@ -4911,7 +4911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4922,29 +4922,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4965,115 +4963,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5090,72 +5078,66 @@
         <v>5.550816601235335e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5988394259682818</v>
+        <v>3.150215941232316e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9461185296832748</v>
+        <v>1.665978703639658e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.150215941232316e-07</v>
+        <v>0.09464468549253365</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.665978703639658e-06</v>
+        <v>0.1509381102875343</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09464468549253365</v>
+        <v>0.03169555094767982</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1509381102875343</v>
+        <v>1.84139601503532</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03169555094767982</v>
+        <v>1.770396667011413</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.821475116454747</v>
+        <v>3.465717861288037</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.770396667011413</v>
+        <v>7.215056390187079e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.465717861288037</v>
+        <v>176216493.2325576</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.215056390187079e-16</v>
+        <v>6.63690814716848e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>176216493.2325576</v>
+        <v>22.40437527373308</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.63690814716848e-07</v>
+        <v>0.0002163852630683967</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>22.40437527373308</v>
+        <v>12.60159572537319</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002163852630683967</v>
+        <v>1.058270109319523</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.60159572537319</v>
+        <v>0.03436202626038649</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.058270109319523</v>
+        <v>2.39843329793751</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03436202626038649</v>
+        <v>0.9596753642557427</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.39843329793751</v>
+        <v>1.496844710802758</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9596753642557427</v>
+        <v>42</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.496844710802758</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1917380783277517</v>
       </c>
     </row>
@@ -5170,72 +5152,66 @@
         <v>5.531386058384172e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.022685100660982</v>
+        <v>2.922315273379537e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.5806476717118758</v>
+        <v>1.671026679683004e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.922315273379537e-07</v>
+        <v>0.08809881961387042</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.671026679683004e-06</v>
+        <v>0.1317013336273617</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08809881961387042</v>
+        <v>0.02507820990737349</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1317013336273617</v>
+        <v>1.818416545116162</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02507820990737349</v>
+        <v>1.751415216435178</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.783295993059281</v>
+        <v>3.493424077134637</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.751415216435178</v>
+        <v>7.101065533075704e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.493424077134637</v>
+        <v>188443988.756316</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.101065533075704e-16</v>
+        <v>6.22608706265716e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>188443988.756316</v>
+        <v>25.21669102694939</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.22608706265716e-07</v>
+        <v>0.0002155843182392169</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>25.21669102694939</v>
+        <v>10.48051052859963</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002155843182392169</v>
+        <v>1.337834018295028</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.48051052859963</v>
+        <v>0.02368001886081382</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.337834018295028</v>
+        <v>2.601005170635687</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02368001886081382</v>
+        <v>0.9596151954394323</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.601005170635687</v>
+        <v>1.564426653854526</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9596151954394323</v>
+        <v>43</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.564426653854526</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1838134908631178</v>
       </c>
     </row>
@@ -5250,72 +5226,66 @@
         <v>5.679178501587797e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.246839217771085</v>
+        <v>2.745285448991846e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.5028856839430973</v>
+        <v>1.675747268215127e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.745285448991846e-07</v>
+        <v>0.08059798131909329</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.675747268215127e-06</v>
+        <v>0.1156027136346771</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08059798131909329</v>
+        <v>0.01984391073151512</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1156027136346771</v>
+        <v>1.807533784507041</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01984391073151512</v>
+        <v>1.724147872011269</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.763414016402461</v>
+        <v>3.566780214857123</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.724147872011269</v>
+        <v>8.218884017900053e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.566780214857123</v>
+        <v>161592663.3965874</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.218884017900053e-16</v>
+        <v>7.245866105546986e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>161592663.3965874</v>
+        <v>21.46130517234528</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.245866105546986e-07</v>
+        <v>0.0002302926474334271</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21.46130517234528</v>
+        <v>9.371732446736937</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002302926474334271</v>
+        <v>1.627660024502928</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.371732446736937</v>
+        <v>0.02022645792167398</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.627660024502928</v>
+        <v>2.626980927061392</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02022645792167398</v>
+        <v>0.9597141149185662</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.626980927061392</v>
+        <v>1.598210934209845</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9597141149185662</v>
+        <v>43</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.598210934209845</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1733428593873164</v>
       </c>
     </row>
@@ -5330,72 +5300,66 @@
         <v>5.921065521924541e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.327827282008355</v>
+        <v>2.566807496840642e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.4527142195360234</v>
+        <v>1.680176236988246e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.566807496840642e-07</v>
+        <v>0.07227107483485735</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.680176236988246e-06</v>
+        <v>0.1016703036134314</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07227107483485735</v>
+        <v>0.01555061972970437</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1016703036134314</v>
+        <v>1.812104872512279</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01555061972970437</v>
+        <v>1.775629779286372</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.767404647460282</v>
+        <v>3.532527936945958</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.775629779286372</v>
+        <v>9.578852593751235e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.532527936945958</v>
+        <v>139941244.5328657</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.578852593751235e-16</v>
+        <v>8.378690764296743e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>139941244.5328657</v>
+        <v>18.75879571172345</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.378690764296743e-07</v>
+        <v>0.0002142795569051171</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>18.75879571172345</v>
+        <v>9.873558570328289</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002142795569051171</v>
+        <v>1.446194741679053</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.873558570328289</v>
+        <v>0.02088950520053892</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.446194741679053</v>
+        <v>2.631380578018666</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02088950520053892</v>
+        <v>0.9579468469937549</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.631380578018666</v>
+        <v>1.606015033727769</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9579468469937549</v>
+        <v>43</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.606015033727769</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1711407667653718</v>
       </c>
     </row>
@@ -5410,72 +5374,66 @@
         <v>6.200183623238406e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.318724514233087</v>
+        <v>2.380886827965198e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.3199286513837731</v>
+        <v>1.684298082251474e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.380886827965198e-07</v>
+        <v>0.06401197827047143</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.684298082251474e-06</v>
+        <v>0.09078507779083103</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.06401197827047143</v>
+        <v>0.01233430104496087</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09078507779083103</v>
+        <v>1.807389928905174</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01233430104496087</v>
+        <v>1.845641200048367</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.758181293720759</v>
+        <v>3.454222106507674</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.845641200048367</v>
+        <v>1.001807276555495e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.454222106507674</v>
+        <v>133618560.0199198</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.001807276555495e-15</v>
+        <v>8.743110415803414e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>133618560.0199198</v>
+        <v>17.88618655208077</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.743110415803414e-07</v>
+        <v>0.000189404005519268</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>17.88618655208077</v>
+        <v>11.14494734645482</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000189404005519268</v>
+        <v>1.131851166696964</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.14494734645482</v>
+        <v>0.0235258433716373</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.131851166696964</v>
+        <v>2.557910208459224</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0235258433716373</v>
+        <v>0.9568043347800095</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.557910208459224</v>
+        <v>1.599900282411133</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9568043347800095</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.599900282411133</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1778846207348161</v>
       </c>
     </row>
@@ -5490,72 +5448,66 @@
         <v>6.482018636375982e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.262497234524726</v>
+        <v>2.225840451076054e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.1166415799254978</v>
+        <v>1.688129560957551e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.225840451076054e-07</v>
+        <v>0.0572179439309746</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.688129560957551e-06</v>
+        <v>0.08389184190051299</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0572179439309746</v>
+        <v>0.01030961306216287</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08389184190051299</v>
+        <v>1.801023453568847</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01030961306216287</v>
+        <v>1.885244462273705</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.747329163853534</v>
+        <v>3.44754570111963</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.885244462273705</v>
+        <v>1.005691168702585e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.44754570111963</v>
+        <v>131809972.1405697</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.005691168702585e-15</v>
+        <v>8.856609237850339e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>131809972.1405697</v>
+        <v>17.47274637380303</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.856609237850339e-07</v>
+        <v>0.0001854315451659333</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>17.47274637380303</v>
+        <v>11.69710824082059</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001854315451659333</v>
+        <v>1.050562446783918</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.69710824082059</v>
+        <v>0.02537117814146795</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.050562446783918</v>
+        <v>2.3715683168712</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02537117814146795</v>
+        <v>0.9549190137626218</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.3715683168712</v>
+        <v>1.625563171107279</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9549190137626218</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.625563171107279</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1827795302461017</v>
       </c>
     </row>
@@ -5932,7 +5884,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.247169998030718</v>
+        <v>1.257784595356752</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.837574391640156</v>
@@ -6021,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.258226799636881</v>
+        <v>1.266875601626007</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.597323924488219</v>
@@ -6110,7 +6062,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.26259347437778</v>
+        <v>1.271969889090511</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.367335475650454</v>
@@ -6199,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.269909028336222</v>
+        <v>1.281492706024063</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.635949025893846</v>
@@ -6288,7 +6240,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.265555054543031</v>
+        <v>1.274565252086834</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.667048892908343</v>
@@ -6377,7 +6329,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.266652054473268</v>
+        <v>1.276919676992718</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.638271162751099</v>
@@ -6466,7 +6418,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.285225499297244</v>
+        <v>1.296535892499587</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.390704705957416</v>
@@ -6555,7 +6507,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.28614361669674</v>
+        <v>1.298461861273752</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.750742690673052</v>
@@ -6644,7 +6596,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.293728505872645</v>
+        <v>1.304978819589812</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.551044001222785</v>
@@ -6733,7 +6685,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.30005010694003</v>
+        <v>1.309797143861988</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.538355835115578</v>
@@ -6822,7 +6774,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.329226420911851</v>
+        <v>1.342636131406538</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.798508526868688</v>
@@ -6911,7 +6863,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.340108224477734</v>
+        <v>1.353415335524476</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.422083821820316</v>
@@ -7000,7 +6952,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.360064508953787</v>
+        <v>1.376211019874807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.398431032161967</v>
@@ -7089,7 +7041,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.37893316128165</v>
+        <v>1.394460335183797</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.222192507272703</v>
@@ -7178,7 +7130,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.405593190588581</v>
+        <v>1.427599844262399</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.638393937584554</v>
@@ -7267,7 +7219,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.401974956644561</v>
+        <v>1.427045125121922</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.616634517430912</v>
@@ -7356,7 +7308,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.393765453963193</v>
+        <v>1.419153543319518</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.509831859307305</v>
@@ -7445,7 +7397,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.390131850191833</v>
+        <v>1.414555875333757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.329018076764787</v>
@@ -7534,7 +7486,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.385361341697473</v>
+        <v>1.409200054339505</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.272011265989079</v>
@@ -7623,7 +7575,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.416623625790472</v>
+        <v>1.44006515229267</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.527321238989951</v>
@@ -7712,7 +7664,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.41985579625923</v>
+        <v>1.439472780675074</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.481947548093221</v>
@@ -7801,7 +7753,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.417783985362184</v>
+        <v>1.436888614462021</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.537505439093691</v>
@@ -7890,7 +7842,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.419691043855208</v>
+        <v>1.439213370243927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.35192920478882</v>
@@ -7979,7 +7931,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429203795241976</v>
+        <v>1.433935655198699</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.113467268195255</v>
@@ -8068,7 +8020,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.393198818391992</v>
+        <v>1.394064439806899</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.065458275434757</v>
@@ -8157,7 +8109,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.390906084749623</v>
+        <v>1.39540301725629</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.074772944561761</v>
@@ -8246,7 +8198,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.39149388243124</v>
+        <v>1.395045744960265</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.142111031628922</v>
@@ -8335,7 +8287,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.40628885964674</v>
+        <v>1.405855863158921</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.121029147869188</v>
@@ -8424,7 +8376,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.418595250727399</v>
+        <v>1.421880081765158</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.122491267145339</v>
@@ -8513,7 +8465,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.400938314030172</v>
+        <v>1.404133269229301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.033584476302138</v>
@@ -8602,7 +8554,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.391757659449512</v>
+        <v>1.39727856712767</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.077859298945496</v>
@@ -8691,7 +8643,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.395208031114229</v>
+        <v>1.397780733142501</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.131475693554223</v>
@@ -8780,7 +8732,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.403360968461372</v>
+        <v>1.407288128563376</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.138217165375785</v>
@@ -8869,7 +8821,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.424544328955768</v>
+        <v>1.428410316290744</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.059642780009926</v>
@@ -8958,7 +8910,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.420995951536214</v>
+        <v>1.424368369826639</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.13478288060478</v>
@@ -9047,7 +8999,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433755252512185</v>
+        <v>1.43623796526833</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.083413080147972</v>
@@ -9136,7 +9088,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.429591736175408</v>
+        <v>1.431811209953028</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.068954273518054</v>
@@ -9225,7 +9177,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.441885898306529</v>
+        <v>1.44394091377687</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.998959416900493</v>
@@ -9314,7 +9266,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.460658028960236</v>
+        <v>1.470291520130069</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.146660314653821</v>
@@ -9403,7 +9355,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.472848623476283</v>
+        <v>1.48804947009081</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.761072602554684</v>
@@ -9492,7 +9444,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.476483352540494</v>
+        <v>1.490252913693678</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.480839859935553</v>
@@ -9581,7 +9533,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444143168842326</v>
+        <v>1.46322413029442</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.599926684109659</v>
@@ -9670,7 +9622,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.430683249736942</v>
+        <v>1.451937978667981</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.404519086322279</v>
@@ -9759,7 +9711,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.406334035763986</v>
+        <v>1.418800236588087</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.366688648379489</v>
@@ -9848,7 +9800,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.374319915750173</v>
+        <v>1.391218311357319</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.394410406110932</v>
@@ -9937,7 +9889,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.362233200278456</v>
+        <v>1.381607537768115</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.259553779135229</v>
@@ -10026,7 +9978,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.374765269124546</v>
+        <v>1.396492983047579</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.473838433963568</v>
@@ -10115,7 +10067,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.376877977905505</v>
+        <v>1.398004812931677</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.495887128347174</v>
@@ -10204,7 +10156,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.374358673905467</v>
+        <v>1.39712200077623</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.475687172913955</v>
@@ -10293,7 +10245,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.361509838343355</v>
+        <v>1.385824274024162</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.444321161758</v>
@@ -10382,7 +10334,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.34584500715756</v>
+        <v>1.371441647685383</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.441426596722442</v>
@@ -10668,7 +10620,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.699241340658217</v>
+        <v>1.6768113503928</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.810866796176072</v>
@@ -10757,7 +10709,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.701036263453728</v>
+        <v>1.679910571923507</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.743268670151045</v>
@@ -10846,7 +10798,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.694723335474038</v>
+        <v>1.674195231617392</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.716687531467291</v>
@@ -10935,7 +10887,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.676662268846027</v>
+        <v>1.653098920157955</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.585745764307493</v>
@@ -11024,7 +10976,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.668504782262921</v>
+        <v>1.644968981354401</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.57535297966782</v>
@@ -11113,7 +11065,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.657603566599147</v>
+        <v>1.633629468748001</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.654489038902166</v>
@@ -11202,7 +11154,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.655049987363098</v>
+        <v>1.625174798080985</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.621652075793401</v>
@@ -11291,7 +11243,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637821122567554</v>
+        <v>1.617751815126375</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.711848847684381</v>
@@ -11380,7 +11332,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610246888752083</v>
+        <v>1.590352746574873</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.669829148361068</v>
@@ -11469,7 +11421,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601185199592997</v>
+        <v>1.585983257004991</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.653008533389239</v>
@@ -11558,7 +11510,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587385605398588</v>
+        <v>1.574877215144747</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.575598018018487</v>
@@ -11647,7 +11599,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580268665589507</v>
+        <v>1.567967853170097</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.671461687037488</v>
@@ -11736,7 +11688,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.586841367187601</v>
+        <v>1.569386343434695</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.002360396270294</v>
@@ -11825,7 +11777,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.521621851534237</v>
+        <v>1.522669532411473</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.063923247651891</v>
@@ -11914,7 +11866,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.523142327778997</v>
+        <v>1.518449815852779</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.999769421885347</v>
@@ -12003,7 +11955,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.510464983151741</v>
+        <v>1.515711439823965</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.005607252990994</v>
@@ -12092,7 +12044,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.498491082296675</v>
+        <v>1.508983965759304</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.993101946794088</v>
@@ -12181,7 +12133,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.487697392122904</v>
+        <v>1.49568357813668</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.021218973808172</v>
@@ -12270,7 +12222,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.489771779432593</v>
+        <v>1.497342442153158</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.026574169894749</v>
@@ -12359,7 +12311,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.49178045139195</v>
+        <v>1.494888303420882</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.018241696262455</v>
@@ -12448,7 +12400,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.486081842175032</v>
+        <v>1.49096859774619</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.041665443748607</v>
@@ -12537,7 +12489,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.482261425035759</v>
+        <v>1.482082086952807</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.988868396691152</v>
@@ -12626,7 +12578,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.488533558526292</v>
+        <v>1.487771793217055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.04638968130771</v>
@@ -12715,7 +12667,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.51871885085886</v>
+        <v>1.495362750107587</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.831388073523554</v>
@@ -12804,7 +12756,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.447890856456172</v>
+        <v>1.430262299892817</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.84253968430495</v>
@@ -12893,7 +12845,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440277259978226</v>
+        <v>1.42424284167283</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.814006484039129</v>
@@ -12982,7 +12934,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.435081989447364</v>
+        <v>1.420653509714994</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.809368739229537</v>
@@ -13071,7 +13023,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.439838437968762</v>
+        <v>1.418932169704892</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.905866897090909</v>
@@ -13160,7 +13112,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.449352064244629</v>
+        <v>1.42777478395676</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.782978252363873</v>
@@ -13249,7 +13201,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.441142995031212</v>
+        <v>1.422904476295241</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.746561478677418</v>
@@ -13338,7 +13290,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.440188478626785</v>
+        <v>1.419619162876812</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.780075872111401</v>
@@ -13427,7 +13379,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.449300443578967</v>
+        <v>1.429910071335086</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.808351041311039</v>
@@ -13516,7 +13468,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.449695306440587</v>
+        <v>1.435094727127095</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.840050644248841</v>
@@ -13605,7 +13557,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.440915440524473</v>
+        <v>1.429473136613844</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.826140721386964</v>
@@ -13694,7 +13646,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.450150217061878</v>
+        <v>1.4439030536619</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.834706149388365</v>
@@ -13783,7 +13735,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469082155737812</v>
+        <v>1.470822512776879</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.842624853050411</v>
@@ -13872,7 +13824,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.470019614892686</v>
+        <v>1.473567063234331</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.870972403292774</v>
@@ -13961,7 +13913,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.479722625285157</v>
+        <v>1.484442822380511</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.826588631284788</v>
@@ -14050,7 +14002,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.522836940152744</v>
+        <v>1.53628411808958</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.950301093496214</v>
@@ -14139,7 +14091,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.534424417986019</v>
+        <v>1.551375455631044</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.622679644548239</v>
@@ -14228,7 +14180,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.544573204003991</v>
+        <v>1.559566818473938</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.885050168438738</v>
@@ -14317,7 +14269,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550304347976272</v>
+        <v>1.563926443487797</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.690791234255861</v>
@@ -14406,7 +14358,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.536285947243917</v>
+        <v>1.550424813404855</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.842544495983399</v>
@@ -14495,7 +14447,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.543165675899593</v>
+        <v>1.55581609657081</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.742042511884744</v>
@@ -14584,7 +14536,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.506586358037323</v>
+        <v>1.51816482956004</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.432596971689775</v>
@@ -14673,7 +14625,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.495221860716943</v>
+        <v>1.516782894683664</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.990320170224948</v>
@@ -14762,7 +14714,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.474138939254771</v>
+        <v>1.503568340778053</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.955450450674091</v>
@@ -14851,7 +14803,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.480675527284397</v>
+        <v>1.50952693937524</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.991388455983745</v>
@@ -14940,7 +14892,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.486063354105951</v>
+        <v>1.513928351319505</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.985306681053371</v>
@@ -15029,7 +14981,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.480246278681571</v>
+        <v>1.507550184788834</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.013945363688415</v>
@@ -15118,7 +15070,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.461450398541009</v>
+        <v>1.48454942529865</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.958720058387148</v>
@@ -15404,7 +15356,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441293024500887</v>
+        <v>1.464685517866943</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.992688550902004</v>
@@ -15493,7 +15445,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.449822636948159</v>
+        <v>1.471877370876577</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.992782319337032</v>
@@ -15582,7 +15534,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465370651553354</v>
+        <v>1.485700470510007</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.927121354344035</v>
@@ -15671,7 +15623,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.464391489887178</v>
+        <v>1.485583581593761</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.956598113246462</v>
@@ -15760,7 +15712,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.522500053049636</v>
+        <v>1.538561599747245</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.599901390367766</v>
@@ -15849,7 +15801,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.516574824498312</v>
+        <v>1.536332385530965</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.677890255870566</v>
@@ -15938,7 +15890,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534786217265103</v>
+        <v>1.551556710469876</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.86676447364374</v>
@@ -16027,7 +15979,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.538759986614102</v>
+        <v>1.555423426599392</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.784400395578293</v>
@@ -16116,7 +16068,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559297591181978</v>
+        <v>1.577651324423533</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.81241500794414</v>
@@ -16205,7 +16157,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.572628946589892</v>
+        <v>1.586774953086285</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.969918427925863</v>
@@ -16294,7 +16246,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594395749591607</v>
+        <v>1.606940580496991</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.852882894627103</v>
@@ -16383,7 +16335,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.59361467092914</v>
+        <v>1.607937380886548</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.008608282467413</v>
@@ -16472,7 +16424,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623879839054225</v>
+        <v>1.635201491827555</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.983578569676129</v>
@@ -16561,7 +16513,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615479765086749</v>
+        <v>1.625494127552242</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.539925023254219</v>
@@ -16650,7 +16602,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636675666148512</v>
+        <v>1.647007515089393</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.791213639270576</v>
@@ -16739,7 +16691,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651072747744174</v>
+        <v>1.660416111730461</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.788796226736912</v>
@@ -16828,7 +16780,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.65013542829815</v>
+        <v>1.660804548813779</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.870570487218729</v>
@@ -16917,7 +16869,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.641488746073092</v>
+        <v>1.651075168783875</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.850585706210893</v>
@@ -17006,7 +16958,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.619782021395452</v>
+        <v>1.628939729076152</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.898113272898036</v>
@@ -17095,7 +17047,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617692410986913</v>
+        <v>1.628364579749479</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.719396031782384</v>
@@ -17184,7 +17136,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628096035192721</v>
+        <v>1.633689167231024</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.872011751254978</v>
@@ -17273,7 +17225,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628239347429457</v>
+        <v>1.631667822373398</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.748615280295027</v>
@@ -17362,7 +17314,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.632394155183238</v>
+        <v>1.635654986692936</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.831929642690544</v>
@@ -17451,7 +17403,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658691269636255</v>
+        <v>1.630849019339276</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.399275125831402</v>
@@ -17540,7 +17492,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.440587012606799</v>
+        <v>1.445600229971205</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.42808186060493</v>
@@ -17629,7 +17581,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.434773154787677</v>
+        <v>1.442061871488519</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.428532496582551</v>
@@ -17718,7 +17670,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.437671183602018</v>
+        <v>1.44698232045545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.429998512392124</v>
@@ -17807,7 +17759,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.44836498043365</v>
+        <v>1.457934246970636</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.434618289402623</v>
@@ -17896,7 +17848,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.458242730866788</v>
+        <v>1.468824855793712</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.427593604397266</v>
@@ -17985,7 +17937,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.453707804500385</v>
+        <v>1.462529620400264</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.426722494749634</v>
@@ -18074,7 +18026,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.455680052209628</v>
+        <v>1.4652152321197</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.430150293824295</v>
@@ -18163,7 +18115,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.456318854220189</v>
+        <v>1.462775028113389</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.431871881284679</v>
@@ -18252,7 +18204,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.449930784585005</v>
+        <v>1.458725439555117</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.438684936075898</v>
@@ -18341,7 +18293,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.47095608207902</v>
+        <v>1.479019262195015</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.429607238962248</v>
@@ -18430,7 +18382,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.473057782391169</v>
+        <v>1.481243022618915</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.438478574593152</v>
@@ -18519,7 +18471,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.470505631639397</v>
+        <v>1.48130080340327</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.439593764175869</v>
@@ -18608,7 +18560,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.467446382547763</v>
+        <v>1.479506279285726</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.438062491687694</v>
@@ -18697,7 +18649,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.469166716179928</v>
+        <v>1.47905724365687</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.435543972904522</v>
@@ -18786,7 +18738,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.597116912246674</v>
+        <v>1.605847393342959</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.463202878979408</v>
@@ -18875,7 +18827,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.676312989268468</v>
+        <v>1.685736362452522</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.345927329688678</v>
@@ -18964,7 +18916,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687159190651539</v>
+        <v>1.689955471846568</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.563077192844329</v>
@@ -19053,7 +19005,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.682752895071248</v>
+        <v>1.685310816637376</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.678389539422523</v>
@@ -19142,7 +19094,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.668495796967779</v>
+        <v>1.674012355205448</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.621049700492411</v>
@@ -19231,7 +19183,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.653080309982721</v>
+        <v>1.661246553469885</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.535793512053461</v>
@@ -19320,7 +19272,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.606188565757162</v>
+        <v>1.622885950882313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.761403294809504</v>
@@ -19409,7 +19361,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.580551594552497</v>
+        <v>1.597979159382107</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.64439062479853</v>
@@ -19498,7 +19450,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.603088644932174</v>
+        <v>1.621328433482934</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.575370276760755</v>
@@ -19587,7 +19539,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.605192006651002</v>
+        <v>1.624512359808134</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.033432896746626</v>
@@ -19676,7 +19628,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597341498614445</v>
+        <v>1.61462203818038</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.899099063815723</v>
@@ -19765,7 +19717,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.595046627462779</v>
+        <v>1.613429874411498</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.849044125649857</v>
@@ -19854,7 +19806,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.600055083689097</v>
+        <v>1.615998587510873</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.879573798078506</v>
@@ -20140,7 +20092,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.525532020858511</v>
+        <v>1.534005538894115</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.912317196422948</v>
@@ -20229,7 +20181,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.534947613087663</v>
+        <v>1.542218076197577</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.843812177784432</v>
@@ -20318,7 +20270,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.54752671938494</v>
+        <v>1.553897033957429</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.724746706848904</v>
@@ -20407,7 +20359,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552073911937097</v>
+        <v>1.558342526267694</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.982703687785241</v>
@@ -20496,7 +20448,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544249057060802</v>
+        <v>1.552353409670253</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.052547704454885</v>
@@ -20585,7 +20537,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542443897099383</v>
+        <v>1.550572834943027</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.760982636031633</v>
@@ -20674,7 +20626,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.559328029154025</v>
+        <v>1.569236557681794</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.900996230756822</v>
@@ -20763,7 +20715,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.55727838347034</v>
+        <v>1.567623602592526</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.822201479992223</v>
@@ -20852,7 +20804,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.565155248529186</v>
+        <v>1.571498749984238</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.760388917501949</v>
@@ -20941,7 +20893,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.572190190027247</v>
+        <v>1.578294490269528</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.790359778798532</v>
@@ -21030,7 +20982,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592239841198113</v>
+        <v>1.597971685870252</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.629630099708315</v>
@@ -21119,7 +21071,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.59966372187843</v>
+        <v>1.605066713677205</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.69475786130262</v>
@@ -21208,7 +21160,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624162567117703</v>
+        <v>1.623560352110547</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.743241498339549</v>
@@ -21297,7 +21249,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645176237522461</v>
+        <v>1.642390875257196</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.649704182406899</v>
@@ -21386,7 +21338,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66535498814343</v>
+        <v>1.666101035957195</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.973277858368301</v>
@@ -21475,7 +21427,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.666034940309918</v>
+        <v>1.668692277763189</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.951152535910304</v>
@@ -21564,7 +21516,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.65826393800821</v>
+        <v>1.657522391917143</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.024154130021464</v>
@@ -21653,7 +21605,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651225591549422</v>
+        <v>1.653298192365205</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.704677897606181</v>
@@ -21742,7 +21694,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65041074192312</v>
+        <v>1.64822113436656</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.755135608297735</v>
@@ -21831,7 +21783,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.661846818892757</v>
+        <v>1.656336658359414</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.002745573804036</v>
@@ -21920,7 +21872,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.670423030880748</v>
+        <v>1.663159621536108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.993703927892333</v>
@@ -22009,7 +21961,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.669075742271172</v>
+        <v>1.665442763117461</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.877961956552201</v>
@@ -22098,7 +22050,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676223901946747</v>
+        <v>1.66844480162205</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.046132999541347</v>
@@ -22187,7 +22139,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.660673637029532</v>
+        <v>1.655369330607</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.5516794266859</v>
@@ -22276,7 +22228,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.636623444642277</v>
+        <v>1.633041776546974</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.593725596532062</v>
@@ -22365,7 +22317,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.643482539684464</v>
+        <v>1.640575610142138</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.67429855907868</v>
@@ -22454,7 +22406,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.638972078828613</v>
+        <v>1.636398668799983</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.61605506445042</v>
@@ -22543,7 +22495,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.642795567399329</v>
+        <v>1.635057268921059</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.403150273489212</v>
@@ -22632,7 +22584,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.662663509001088</v>
+        <v>1.652317920513989</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.593849963645984</v>
@@ -22721,7 +22673,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.652375147951375</v>
+        <v>1.639599352734251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.558763155058433</v>
@@ -22810,7 +22762,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.65754745190148</v>
+        <v>1.644343010923589</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.55615420904067</v>
@@ -22899,7 +22851,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.663272596009574</v>
+        <v>1.649737836902472</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.748011692007466</v>
@@ -22988,7 +22940,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.682456342680155</v>
+        <v>1.669104520430648</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.625885619727655</v>
@@ -23077,7 +23029,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.713088801531904</v>
+        <v>1.692929096705228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.645060797831241</v>
@@ -23166,7 +23118,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.71842871139519</v>
+        <v>1.699514320036463</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.770040467410149</v>
@@ -23255,7 +23207,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.719214200962949</v>
+        <v>1.701691492431781</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.675596140905829</v>
@@ -23344,7 +23296,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.713902462579456</v>
+        <v>1.696741162759206</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.707419418837478</v>
@@ -23433,7 +23385,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.713584782456432</v>
+        <v>1.700887890169702</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.583127322751099</v>
@@ -23522,7 +23474,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.73280934895142</v>
+        <v>1.713301169787987</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.499221960048449</v>
@@ -23611,7 +23563,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.742512372788517</v>
+        <v>1.718415040643353</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.223290640415402</v>
@@ -23700,7 +23652,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.743323055001528</v>
+        <v>1.715799096213587</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.020671366971326</v>
@@ -23789,7 +23741,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.731717541824525</v>
+        <v>1.705376124139182</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.216974034701706</v>
@@ -23878,7 +23830,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.729888439924852</v>
+        <v>1.703521000867905</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.919949513916962</v>
@@ -23967,7 +23919,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.70628421836502</v>
+        <v>1.684273143695266</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.215737255200423</v>
@@ -24056,7 +24008,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.668007383211946</v>
+        <v>1.65472549630963</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.901292598371712</v>
@@ -24145,7 +24097,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.658667968310891</v>
+        <v>1.65163945298288</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.061894286220425</v>
@@ -24234,7 +24186,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.663925882944868</v>
+        <v>1.656744933674268</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.125748282129389</v>
@@ -24323,7 +24275,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.654171123159804</v>
+        <v>1.646475543002178</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.101588812471821</v>
@@ -24412,7 +24364,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.650392443305113</v>
+        <v>1.63928256677857</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.108555702445995</v>
@@ -24501,7 +24453,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643342370210233</v>
+        <v>1.628700219228069</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.06482171088929</v>
@@ -24590,7 +24542,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.631974241035049</v>
+        <v>1.616254090798938</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.020208801389616</v>
@@ -24876,7 +24828,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.476365371070888</v>
+        <v>1.497600105555764</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.470210987060762</v>
@@ -24965,7 +24917,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.466006474846498</v>
+        <v>1.486877512905641</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.36466565365706</v>
@@ -25054,7 +25006,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.4727338563535</v>
+        <v>1.495929650952793</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.356617759087578</v>
@@ -25143,7 +25095,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484365447289903</v>
+        <v>1.506058448409329</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.577330139677362</v>
@@ -25232,7 +25184,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46723589146591</v>
+        <v>1.483770399754967</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.329585850156505</v>
@@ -25321,7 +25273,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460743313486189</v>
+        <v>1.472055176660133</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.393222807477242</v>
@@ -25410,7 +25362,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.467716247436629</v>
+        <v>1.475935075374122</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.515929164905097</v>
@@ -25499,7 +25451,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.469483707743076</v>
+        <v>1.476104175368576</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.30043344660447</v>
@@ -25588,7 +25540,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4656041323785</v>
+        <v>1.467243474298219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.278166493101524</v>
@@ -25677,7 +25629,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45896247808021</v>
+        <v>1.460095103775443</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.266979472607225</v>
@@ -25766,7 +25718,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.47032067587995</v>
+        <v>1.467650983797667</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.395764563168505</v>
@@ -25855,7 +25807,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.469653095769747</v>
+        <v>1.463595587176873</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.123984471397371</v>
@@ -25944,7 +25896,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.501647584457486</v>
+        <v>1.48714633059359</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.330989514667778</v>
@@ -26033,7 +25985,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.478763003269963</v>
+        <v>1.4647187709739</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.55903315163224</v>
@@ -26122,7 +26074,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.479043436665591</v>
+        <v>1.466395976381719</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.358104589355328</v>
@@ -26211,7 +26163,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491647734462362</v>
+        <v>1.47588866148704</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.385097764401578</v>
@@ -26300,7 +26252,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.478376467443307</v>
+        <v>1.465576835698747</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.542714067010464</v>
@@ -26389,7 +26341,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.464203630416667</v>
+        <v>1.449896513421175</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.508871828810233</v>
@@ -26478,7 +26430,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457867102311032</v>
+        <v>1.443833444574761</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.477386021195301</v>
@@ -26567,7 +26519,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.458432809582585</v>
+        <v>1.448190078739762</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.522125287544396</v>
@@ -26656,7 +26608,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.466589281144444</v>
+        <v>1.455148457636258</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.42370534863264</v>
@@ -26745,7 +26697,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.461421328079192</v>
+        <v>1.451655560063303</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.516156926273323</v>
@@ -26834,7 +26786,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.461898132012531</v>
+        <v>1.452187737254351</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.366444183629072</v>
@@ -26923,7 +26875,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.464174494959313</v>
+        <v>1.452271248170004</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.324298758487273</v>
@@ -27012,7 +26964,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.45404867688486</v>
+        <v>1.431322877516713</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.568611093717075</v>
@@ -27101,7 +27053,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443468278365819</v>
+        <v>1.422950914510096</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.537713969291405</v>
@@ -27190,7 +27142,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.438904391295</v>
+        <v>1.423916421598126</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.356317995832684</v>
@@ -27279,7 +27231,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.456227958692802</v>
+        <v>1.433390386187343</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.227936676822613</v>
@@ -27368,7 +27320,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.458400333724152</v>
+        <v>1.439254020407213</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.867994214646111</v>
@@ -27457,7 +27409,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.454129699024425</v>
+        <v>1.435087561026019</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.841988381951635</v>
@@ -27546,7 +27498,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.433468209531788</v>
+        <v>1.412821263352129</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.39526887263897</v>
@@ -27635,7 +27587,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.383694571669489</v>
+        <v>1.374894379601531</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.268180345014941</v>
@@ -27724,7 +27676,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.361610612240152</v>
+        <v>1.356179698169304</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.304411130080221</v>
@@ -27813,7 +27765,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.386773704611191</v>
+        <v>1.382702656819493</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.267460671937884</v>
@@ -27902,7 +27854,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.393629930201775</v>
+        <v>1.385960561810794</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.326475233342773</v>
@@ -27991,7 +27943,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389515880039727</v>
+        <v>1.385988871444173</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.307141233048152</v>
@@ -28080,7 +28032,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.38963930838853</v>
+        <v>1.386471163316643</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.362374894216632</v>
@@ -28169,7 +28121,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.394703376988909</v>
+        <v>1.392823218890073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.312730172182991</v>
@@ -28258,7 +28210,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.395060714659235</v>
+        <v>1.395623974409138</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.204586510033735</v>
@@ -28347,7 +28299,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.40723288423873</v>
+        <v>1.409973560271368</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.247323438588365</v>
@@ -28436,7 +28388,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.413766494971053</v>
+        <v>1.416720008932445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.351899259005698</v>
@@ -28525,7 +28477,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.406181023132695</v>
+        <v>1.409263268494782</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.277804991745065</v>
@@ -28614,7 +28566,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.404714969410424</v>
+        <v>1.40809059547454</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.331464155696347</v>
@@ -28703,7 +28655,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.407823496795912</v>
+        <v>1.408915260237979</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.978341208527972</v>
@@ -28792,7 +28744,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.269108523792154</v>
+        <v>1.263554297857587</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.779764903024358</v>
@@ -28881,7 +28833,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.23819527179319</v>
+        <v>1.241143158881039</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.818466500348083</v>
@@ -28970,7 +28922,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.247973160000663</v>
+        <v>1.251488853753855</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.842440670341487</v>
@@ -29059,7 +29011,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.250714939285967</v>
+        <v>1.254701946195828</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.809349132161577</v>
@@ -29148,7 +29100,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.239482006752354</v>
+        <v>1.240470917386394</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.806366548032321</v>
@@ -29237,7 +29189,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.232801183864348</v>
+        <v>1.233466461660573</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.791390041557442</v>
@@ -29326,7 +29278,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.228945185189485</v>
+        <v>1.229387148067329</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.779474613057913</v>
@@ -29612,7 +29564,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.286206887754686</v>
+        <v>1.307237862224245</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.922613791499074</v>
@@ -29701,7 +29653,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.302877279553761</v>
+        <v>1.322098227209055</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.713717502310685</v>
@@ -29790,7 +29742,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.32394029216546</v>
+        <v>1.345532990326789</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.424726568127689</v>
@@ -29879,7 +29831,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.335803859510841</v>
+        <v>1.358133759748106</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.498475812428799</v>
@@ -29968,7 +29920,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.340638024054526</v>
+        <v>1.364442890763248</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.742120198121878</v>
@@ -30057,7 +30009,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.334367698607054</v>
+        <v>1.359368737614881</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.599642190514214</v>
@@ -30146,7 +30098,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.357174885798037</v>
+        <v>1.385539294489216</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.481723395858022</v>
@@ -30235,7 +30187,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.364336630876203</v>
+        <v>1.395213485996637</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.821797323879994</v>
@@ -30324,7 +30276,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.381926108296669</v>
+        <v>1.413519476485761</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.695107467924949</v>
@@ -30413,7 +30365,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.392710667241735</v>
+        <v>1.425505407520519</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.676747592684255</v>
@@ -30502,7 +30454,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.426506126460694</v>
+        <v>1.458859866207919</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.92006462471423</v>
@@ -30591,7 +30543,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.440693310889535</v>
+        <v>1.473559182054594</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.649383844744815</v>
@@ -30680,7 +30632,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.459417010759591</v>
+        <v>1.493259064840232</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.523069528461837</v>
@@ -30769,7 +30721,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.485726846242894</v>
+        <v>1.514064563643872</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.351480025099197</v>
@@ -30858,7 +30810,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519216886700079</v>
+        <v>1.552593822134901</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.907564633837954</v>
@@ -30947,7 +30899,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.519551990625791</v>
+        <v>1.5538055781658</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.862267415146057</v>
@@ -31036,7 +30988,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.515587765174959</v>
+        <v>1.549658986009187</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.850668078980201</v>
@@ -31125,7 +31077,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.507563981089642</v>
+        <v>1.54161016964774</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.505443977684666</v>
@@ -31214,7 +31166,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506296053704657</v>
+        <v>1.541441724406978</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.540193355549887</v>
@@ -31303,7 +31255,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.545151644197586</v>
+        <v>1.580763912240103</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.783733369051666</v>
@@ -31392,7 +31344,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559975238184907</v>
+        <v>1.59644152765781</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.779725964438761</v>
@@ -31481,7 +31433,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.559179232869667</v>
+        <v>1.59546108061607</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.825514180201185</v>
@@ -31570,7 +31522,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.556319834093397</v>
+        <v>1.592165157901219</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.656371307747076</v>
@@ -31659,7 +31611,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.550114365393408</v>
+        <v>1.576187752782976</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.508832040035744</v>
@@ -31748,7 +31700,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.519974128009428</v>
+        <v>1.541573652697417</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.491508972384529</v>
@@ -31837,7 +31789,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.522519123900202</v>
+        <v>1.548168416452442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.444766419111234</v>
@@ -31926,7 +31878,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.519405946654828</v>
+        <v>1.54596137305255</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.54759298008276</v>
@@ -32015,7 +31967,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53508946324434</v>
+        <v>1.559405437349617</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.327456409135897</v>
@@ -32104,7 +32056,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566566336880701</v>
+        <v>1.59473991583451</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.521368082444679</v>
@@ -32193,7 +32145,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548867157017922</v>
+        <v>1.575788632508095</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.382401755570021</v>
@@ -32282,7 +32234,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536003991965275</v>
+        <v>1.564344482807996</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.443090487662727</v>
@@ -32371,7 +32323,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.523291818011866</v>
+        <v>1.547967186243884</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.486873008499531</v>
@@ -32460,7 +32412,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534229586758253</v>
+        <v>1.555382812858635</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.473981229907373</v>
@@ -32549,7 +32501,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.565174917072029</v>
+        <v>1.583468156613159</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.416183625804425</v>
@@ -32638,7 +32590,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.551587280576721</v>
+        <v>1.563839259682452</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.557995731888107</v>
@@ -32727,7 +32679,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.560780600522622</v>
+        <v>1.573444450777255</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.44910400692348</v>
@@ -32816,7 +32768,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.556418971585214</v>
+        <v>1.566243978054401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.337338871308587</v>
@@ -32905,7 +32857,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.569743057105209</v>
+        <v>1.575268725252266</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.369445529399397</v>
@@ -32994,7 +32946,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584718239333589</v>
+        <v>1.594952125365793</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.612499852074945</v>
@@ -33083,7 +33035,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.593230861752392</v>
+        <v>1.605168216377626</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.765957935544749</v>
@@ -33172,7 +33124,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595481317746456</v>
+        <v>1.605615805806543</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.768946167293861</v>
@@ -33261,7 +33213,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5664667691564</v>
+        <v>1.580685833838533</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.72079171388583</v>
@@ -33350,7 +33302,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.547903995760779</v>
+        <v>1.563445419606379</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.7062517255821</v>
@@ -33439,7 +33391,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507845348239435</v>
+        <v>1.519802053065549</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.529167243547116</v>
@@ -33528,7 +33480,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.484485425371965</v>
+        <v>1.504340188543704</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.773686632995044</v>
@@ -33617,7 +33569,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.480967048300179</v>
+        <v>1.498333547861464</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.303290125553146</v>
@@ -33706,7 +33658,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.499077653665902</v>
+        <v>1.52158739126959</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.444498267041377</v>
@@ -33795,7 +33747,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.50223001197371</v>
+        <v>1.525457879938897</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.531226763610645</v>
@@ -33884,7 +33836,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.498671629608429</v>
+        <v>1.524287663380885</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.53062912666722</v>
@@ -33973,7 +33925,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.490447415463536</v>
+        <v>1.517790810174676</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.596415441856513</v>
@@ -34062,7 +34014,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.474857946801025</v>
+        <v>1.498271102579502</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.479190647406431</v>
